--- a/output/fit_clients/fit_round_370.xlsx
+++ b/output/fit_clients/fit_round_370.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1626071557.662938</v>
+        <v>2240767036.088093</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1149298149976836</v>
+        <v>0.08436134779041007</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03785621032455695</v>
+        <v>0.03778211677883803</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>813035724.2467197</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2040091190.502993</v>
+        <v>1976165929.381168</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1521850811548963</v>
+        <v>0.1272180430615485</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04227431717964738</v>
+        <v>0.0324201376016784</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1020045641.530435</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3943353163.467574</v>
+        <v>4168243125.400493</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1417570341346927</v>
+        <v>0.1281787825071604</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0253767288004924</v>
+        <v>0.02411154135589548</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>133</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1971676591.91202</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2894225365.498464</v>
+        <v>3653613351.010092</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08004254318440446</v>
+        <v>0.07776431245818115</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04963053078850655</v>
+        <v>0.03152067793196794</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>136</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1447112759.615147</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2307825690.788635</v>
+        <v>1820954112.667395</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1105122863280059</v>
+        <v>0.09578959122560674</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05567994818434574</v>
+        <v>0.05319729889677646</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>70</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1153912841.685353</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3111558395.107191</v>
+        <v>2540331762.205127</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09980246819397587</v>
+        <v>0.07678301572931011</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0492776750636961</v>
+        <v>0.0381569085849625</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>114</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1555779151.703811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3414434979.885486</v>
+        <v>3939651420.797154</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1965389530120425</v>
+        <v>0.2104258960903997</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03318746450528117</v>
+        <v>0.03134482281693772</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>118</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1707217589.836151</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1937540652.352193</v>
+        <v>1506080982.654265</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1544281451141552</v>
+        <v>0.1793156642656274</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02530479967341123</v>
+        <v>0.03730569249877062</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>968770361.4676898</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4134511562.137734</v>
+        <v>5110507337.39885</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1310472682865184</v>
+        <v>0.146132680930657</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04326762354568255</v>
+        <v>0.03387407036234568</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>156</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2067255813.370735</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4176732746.022454</v>
+        <v>3243939232.521677</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1701366889412027</v>
+        <v>0.1594775948949321</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04455711499834759</v>
+        <v>0.03957690296668355</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>153</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2088366398.025099</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3173723190.841988</v>
+        <v>3276427134.491739</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1847315282320254</v>
+        <v>0.1879169973612345</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05368434307452905</v>
+        <v>0.03865015651906314</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>126</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1586861629.35449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3730759038.656616</v>
+        <v>4572146768.479637</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08434429672803502</v>
+        <v>0.06729601342478754</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02941723319209535</v>
+        <v>0.02260945238818185</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>124</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1865379587.940494</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3202178555.157948</v>
+        <v>2564787637.372724</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1836501646828101</v>
+        <v>0.1354980207475393</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04200892803460646</v>
+        <v>0.04186181289336387</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>119</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1601089297.388517</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1834155166.23108</v>
+        <v>1192101039.176458</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09709546847842342</v>
+        <v>0.08063951084837591</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04517612705522522</v>
+        <v>0.03943411362850485</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>917077744.3974681</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2809408200.966699</v>
+        <v>2454556061.783422</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09781406161234665</v>
+        <v>0.08697720334502641</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03124334320792808</v>
+        <v>0.05042553808144045</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>74</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1404704103.667343</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4872525676.479895</v>
+        <v>3445494998.570613</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1171451485064431</v>
+        <v>0.1556242441477291</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03400181299845943</v>
+        <v>0.03238152962643783</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>108</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2436262829.741992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3030849457.102644</v>
+        <v>2799127052.644544</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1538151698754668</v>
+        <v>0.1809542573328305</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03167107272702991</v>
+        <v>0.03267492552775732</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>121</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1515424756.564876</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1238605304.402693</v>
+        <v>1058061763.461962</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1609028304215746</v>
+        <v>0.1324569483478903</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02163089077759928</v>
+        <v>0.01972304330357223</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>619302739.5596913</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2529517529.359941</v>
+        <v>2671708872.361217</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1377978954964347</v>
+        <v>0.1534902839894233</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02217251581477626</v>
+        <v>0.02874891154608592</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>48</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1264758734.640254</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1965048964.462541</v>
+        <v>2698104328.446148</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09702387955721958</v>
+        <v>0.09730851314152943</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04089436337869611</v>
+        <v>0.03227668305359388</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>30</v>
-      </c>
-      <c r="J21" t="n">
-        <v>982524521.5129629</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3654999330.641688</v>
+        <v>3399150560.335774</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09544156957489583</v>
+        <v>0.09418269917882173</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05717672676500201</v>
+        <v>0.04333239504325467</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>102</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1827499687.643629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>941456099.5303826</v>
+        <v>1067481598.639603</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1666867252186209</v>
+        <v>0.1162856105470829</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0469593001847257</v>
+        <v>0.05460297984590762</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>470728129.8123766</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4026938965.412143</v>
+        <v>3097664864.197788</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1413462943151754</v>
+        <v>0.1087941604792927</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02624607667916224</v>
+        <v>0.02356315160934327</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>108</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2013469448.902613</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1279852427.544924</v>
+        <v>1414518762.685911</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08550399135278301</v>
+        <v>0.09520324214472883</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01897915691811832</v>
+        <v>0.02415964211882837</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>639926213.3730748</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>900432332.7339094</v>
+        <v>1438479711.67209</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1137806820835721</v>
+        <v>0.1185908526577409</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0299618401530201</v>
+        <v>0.0335137456311477</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>450216114.1428218</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4572397813.370888</v>
+        <v>3957160086.364599</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1154733657912314</v>
+        <v>0.146926548591989</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02440504416822356</v>
+        <v>0.02538839782968519</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2286198888.394289</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3170677820.831306</v>
+        <v>3124635005.449735</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1289020445345825</v>
+        <v>0.09207144209479344</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04675393264984264</v>
+        <v>0.05026002447872324</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>119</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1585338936.451785</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3793526440.459451</v>
+        <v>3863111562.063825</v>
       </c>
       <c r="F29" t="n">
-        <v>0.146040826029784</v>
+        <v>0.1103363758849478</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0431044463392406</v>
+        <v>0.03939415437503124</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>163</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1896763251.398469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1454494725.242018</v>
+        <v>2243015261.910584</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1148355186239662</v>
+        <v>0.1288600314784213</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03191754252549317</v>
+        <v>0.03751071968084328</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>727247337.9362836</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1062593439.318869</v>
+        <v>1462631346.881891</v>
       </c>
       <c r="F31" t="n">
-        <v>0.102990491383751</v>
+        <v>0.07340329489771059</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04170755123042443</v>
+        <v>0.04014326894817979</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>531296703.4672025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1870389218.707619</v>
+        <v>1607298731.903843</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1020240651367457</v>
+        <v>0.08852709526712947</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03440107463722892</v>
+        <v>0.02453401708827659</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>935194754.408996</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2856683702.730563</v>
+        <v>2558803790.354523</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2072659882641992</v>
+        <v>0.1863527793479548</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04596119487680643</v>
+        <v>0.04222079006554263</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>112</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1428341859.231144</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1372734682.086434</v>
+        <v>1072976901.989936</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1181304046276432</v>
+        <v>0.1018747997878905</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02262376597947588</v>
+        <v>0.01827965946365813</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>686367317.7505769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1345159196.363323</v>
+        <v>931455734.3667769</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1095450808528598</v>
+        <v>0.1082788599694606</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02866067636082334</v>
+        <v>0.03236525720403317</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>672579541.1052949</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3027343393.477571</v>
+        <v>3025730398.728262</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1165796665308677</v>
+        <v>0.1486419750087419</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01939936720002004</v>
+        <v>0.026658477711179</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>92</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1513671676.485196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2105671848.730051</v>
+        <v>2008166416.777564</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06913034616949398</v>
+        <v>0.1031089690608109</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02677917553695558</v>
+        <v>0.02810829843303458</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>98</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1052835966.17893</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1837235783.347621</v>
+        <v>2127721842.178456</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08382184815325791</v>
+        <v>0.08010158683834262</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02503999654307261</v>
+        <v>0.02556447455334856</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>918617893.3010339</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1788050067.659383</v>
+        <v>2032548527.351635</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1399228479721713</v>
+        <v>0.1402571819640449</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02903472818860704</v>
+        <v>0.03046446453092638</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>894025060.5811237</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1482688822.275966</v>
+        <v>1347638355.053069</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09916818653169852</v>
+        <v>0.1337365321375119</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0426228264593301</v>
+        <v>0.05602550794513837</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>741344381.6886657</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2134658354.681379</v>
+        <v>2314512726.838967</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1019673234545007</v>
+        <v>0.1567869384835213</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04703807286971311</v>
+        <v>0.03773172322193731</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>95</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1067329238.361585</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4046288106.341121</v>
+        <v>4291689593.223974</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09435601652204793</v>
+        <v>0.08154844630878742</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04586123726840144</v>
+        <v>0.04553448647297167</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>126</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2023144085.633538</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2216352345.419363</v>
+        <v>3024943853.512776</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1300434770976273</v>
+        <v>0.1303254714228987</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01986251113450237</v>
+        <v>0.01951074946525805</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>130</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1108176249.908627</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1659528627.591806</v>
+        <v>1591010751.549267</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07530964461296107</v>
+        <v>0.08555001707267523</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02273815779240262</v>
+        <v>0.02848379633681291</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>829764352.2133027</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2001502620.008828</v>
+        <v>2510454252.309767</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1825471351089787</v>
+        <v>0.174807944670429</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04059138114988015</v>
+        <v>0.05279502129219305</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1000751301.070668</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4349968526.035398</v>
+        <v>5564656376.510737</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1561489131452071</v>
+        <v>0.1121088590630173</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04998788859762282</v>
+        <v>0.04848994253041283</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>131</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2174984252.595182</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3569710437.809678</v>
+        <v>4419324773.470953</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2022506079496941</v>
+        <v>0.1663425004922792</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03648887276273761</v>
+        <v>0.0377437778042661</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>99</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1784855193.663285</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3108531603.272355</v>
+        <v>4047052115.37631</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08495987811984981</v>
+        <v>0.09877067699341875</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03454517053516722</v>
+        <v>0.03703564779129424</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>120</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1554265887.858242</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1713875163.872516</v>
+        <v>1800831167.428851</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1469040046063184</v>
+        <v>0.1466273422093233</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03635333867194668</v>
+        <v>0.02932521294891976</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>856937580.7278672</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3846688527.295189</v>
+        <v>3415743966.16554</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1181626988051787</v>
+        <v>0.166312728694741</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04873971288481181</v>
+        <v>0.03559536531665076</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>127</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1923344263.245785</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1358312300.777206</v>
+        <v>1348951219.661451</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1831476536772012</v>
+        <v>0.1603336437361479</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03654086941128221</v>
+        <v>0.0532543195183262</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>679156176.2861373</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4098423611.406769</v>
+        <v>3532740695.474701</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1073253872225499</v>
+        <v>0.08714996857392687</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06128564743972464</v>
+        <v>0.05666525892365579</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>152</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2049211856.399666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3273787878.863666</v>
+        <v>3069122608.722879</v>
       </c>
       <c r="F53" t="n">
-        <v>0.184487940294015</v>
+        <v>0.1647971878313776</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02614682544735736</v>
+        <v>0.03309525011620121</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>106</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1636893953.004637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4487378729.686168</v>
+        <v>4115117777.558315</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1618008013194873</v>
+        <v>0.1280050712923986</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05160377768162908</v>
+        <v>0.03550121181235463</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>120</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2243689467.197851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4172385059.622483</v>
+        <v>4380426564.648477</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1857097362965221</v>
+        <v>0.1528714186150565</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02340821067844179</v>
+        <v>0.02713363846224631</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>104</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2086192512.326559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1525470864.657576</v>
+        <v>1524812152.242881</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1493719048256864</v>
+        <v>0.1053145999386269</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0461803464931493</v>
+        <v>0.03820916925363677</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>762735470.8410954</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3145863035.301664</v>
+        <v>3377470222.954989</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1735791961488715</v>
+        <v>0.1578626973554594</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0213121596783062</v>
+        <v>0.01745033170033558</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>118</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1572931534.313953</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1807863695.411201</v>
+        <v>1236399986.847865</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1593742273070523</v>
+        <v>0.1615465652061516</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02502276881370973</v>
+        <v>0.03397211895718864</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>903931850.7492987</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3688385080.405828</v>
+        <v>4956399046.84041</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08724902394651524</v>
+        <v>0.1164419030456401</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03945233266179718</v>
+        <v>0.03992095013202884</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>100</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1844192531.179473</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3294911391.482828</v>
+        <v>2666008476.067034</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1776217202951196</v>
+        <v>0.1291223154300468</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03076510204724989</v>
+        <v>0.02439309087872115</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>117</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1647455797.035779</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3170936174.359172</v>
+        <v>2393699228.499706</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1772488739080242</v>
+        <v>0.1153033260027931</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02694235027515082</v>
+        <v>0.02707188307892796</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>127</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1585468051.53209</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1500018329.366049</v>
+        <v>1609592103.82866</v>
       </c>
       <c r="F62" t="n">
-        <v>0.18358571038582</v>
+        <v>0.1637750349362817</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0454583769572273</v>
+        <v>0.03569064725672932</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>750009147.7746873</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5454854488.037169</v>
+        <v>5157349597.419786</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07037673462462971</v>
+        <v>0.08634220647729697</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03793163750792105</v>
+        <v>0.03424275767288853</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>107</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2727427241.525489</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5204783667.228852</v>
+        <v>3440288558.329678</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1344662286869149</v>
+        <v>0.1549710134357177</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03499313221889282</v>
+        <v>0.03374465399804323</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>115</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2602391954.224655</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4374019723.063129</v>
+        <v>4153739931.282074</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1675689883367863</v>
+        <v>0.1347290274953769</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02898655655763166</v>
+        <v>0.0197542953077345</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>133</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2187009857.807181</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4382523132.289786</v>
+        <v>5335524406.511893</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1238921730130959</v>
+        <v>0.1329930991000532</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03903339149644267</v>
+        <v>0.03952517268684613</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>108</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2191261560.215865</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3331887374.843181</v>
+        <v>3272275891.182303</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06960521081311091</v>
+        <v>0.07951453536975833</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05053756866834447</v>
+        <v>0.04480562663496118</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>117</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1665943677.599719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4300306505.26383</v>
+        <v>3668529164.694359</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1342376137492058</v>
+        <v>0.1598363528760557</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04129150862665616</v>
+        <v>0.03956856831879942</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>120</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2150153266.623765</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2064215289.999557</v>
+        <v>1726650095.559817</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1111389299661401</v>
+        <v>0.1826132183870425</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05354471891285977</v>
+        <v>0.05771590715033499</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1032107658.24904</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2463505672.266727</v>
+        <v>3648132098.950543</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08130817432424743</v>
+        <v>0.07662122922069149</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04973641578358515</v>
+        <v>0.03110657183848352</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>106</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1231752778.22955</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5294761986.735432</v>
+        <v>3403706120.641822</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1295724011704087</v>
+        <v>0.1629220065684347</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03064035382553413</v>
+        <v>0.0301215730835532</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>134</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2647381121.062364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2228219623.721895</v>
+        <v>2045867879.142359</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06569726826204135</v>
+        <v>0.08331810437676868</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05114581373871148</v>
+        <v>0.04738712145065031</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1114109721.407425</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3407223015.229458</v>
+        <v>3238074956.372169</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1040485659617031</v>
+        <v>0.09582203391839687</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04865212065574912</v>
+        <v>0.04561811706882743</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>140</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1703611466.294266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3864769936.804527</v>
+        <v>2618997556.05726</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1744518059046467</v>
+        <v>0.1682916782844518</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02512147833129518</v>
+        <v>0.03189185047776126</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>126</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1932384959.072042</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1920049836.770463</v>
+        <v>2470159616.12997</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1602050456369982</v>
+        <v>0.1571736084922513</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0347474316902282</v>
+        <v>0.0301250385144386</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>960024890.0256875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3497846881.3786</v>
+        <v>4453515369.671503</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1017638572068655</v>
+        <v>0.1201665289275376</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02549876462181183</v>
+        <v>0.0286917890663041</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1748923404.377177</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2217262022.732681</v>
+        <v>1671766103.455291</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1859373703154052</v>
+        <v>0.1593049118968221</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03108008645437979</v>
+        <v>0.03010594393945812</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1108631104.981658</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3008573188.728714</v>
+        <v>3963732513.921693</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1235897647094072</v>
+        <v>0.126829113900341</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05612288211398415</v>
+        <v>0.04903097993330745</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>128</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1504286631.037067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1477374445.891407</v>
+        <v>1405075955.606977</v>
       </c>
       <c r="F79" t="n">
-        <v>0.106575459148834</v>
+        <v>0.1476210310917093</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03696850423622523</v>
+        <v>0.03626842643570496</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>738687253.2240545</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5304418287.20949</v>
+        <v>5600389236.328948</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09123019137958228</v>
+        <v>0.08998652726056049</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03622531975025294</v>
+        <v>0.03363436480400478</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>77</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2652209207.978621</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4406096650.454886</v>
+        <v>3551252275.000895</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1139348453195504</v>
+        <v>0.08943241008984484</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03050411349603495</v>
+        <v>0.02959134648478292</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2203048303.525417</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4691825914.831834</v>
+        <v>3888670035.187346</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1681518482440814</v>
+        <v>0.1677350892921216</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01842079379327961</v>
+        <v>0.02417674666876837</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>130</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2345912958.582338</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1884484362.916614</v>
+        <v>2178954093.912146</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1372097784945702</v>
+        <v>0.1173290043601718</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04376642113541597</v>
+        <v>0.030014332441558</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>942242152.4051472</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2599585825.1894</v>
+        <v>2146027309.43257</v>
       </c>
       <c r="F84" t="n">
-        <v>0.11297732713791</v>
+        <v>0.1029668428553731</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03319170135172511</v>
+        <v>0.04216950397330629</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1299792829.778232</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3306485869.404675</v>
+        <v>2630760385.722665</v>
       </c>
       <c r="F85" t="n">
-        <v>0.113981746391984</v>
+        <v>0.1262221447613636</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04514868567210333</v>
+        <v>0.03431973044856716</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>138</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1653243028.689629</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2095971538.561044</v>
+        <v>2691999766.946929</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1116567524150154</v>
+        <v>0.1206537171264181</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01710002756602694</v>
+        <v>0.02601447418466344</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>50</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1047985810.272637</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1231115576.471296</v>
+        <v>924252335.1256846</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1702322315089882</v>
+        <v>0.1385773280765405</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03025657243937863</v>
+        <v>0.02856594753165907</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>615557851.809445</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2399730479.286047</v>
+        <v>2436642089.114445</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1372395098227057</v>
+        <v>0.1389495833438964</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03511706495327564</v>
+        <v>0.03908249166538324</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>147</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1199865210.767469</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3067872024.385102</v>
+        <v>2744005923.148241</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1388815432385753</v>
+        <v>0.09785626889806347</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03643304273778764</v>
+        <v>0.03302056655775062</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>124</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1533936045.327122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1673827257.531083</v>
+        <v>1880435912.975983</v>
       </c>
       <c r="F90" t="n">
-        <v>0.121508839129978</v>
+        <v>0.1267053745280033</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03664025347955894</v>
+        <v>0.03969080373649426</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>836913639.3055724</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1927527114.571035</v>
+        <v>1497575659.949126</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1569129230362662</v>
+        <v>0.1933613180116738</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05987831751963754</v>
+        <v>0.05205026385647975</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>963763539.2149047</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2982617679.022964</v>
+        <v>2535536778.121606</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1010263005828073</v>
+        <v>0.09026563989407546</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03781129241366942</v>
+        <v>0.03044064528491331</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>104</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1491308859.942539</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3366144338.291048</v>
+        <v>3870187685.085039</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1215232157525782</v>
+        <v>0.1108985761656051</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05089225633740091</v>
+        <v>0.04113849286435479</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>112</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1683072210.777082</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1963738466.521001</v>
+        <v>2168001672.77179</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1514584821342829</v>
+        <v>0.1626528851803445</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04090153050962411</v>
+        <v>0.031739728573865</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
         <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>981869226.8746636</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3085250898.724879</v>
+        <v>2297509700.702969</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09458935410035851</v>
+        <v>0.09206972201807997</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04650714573975395</v>
+        <v>0.03813363047078246</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>91</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1542625442.895652</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1571465755.914754</v>
+        <v>2237692968.347181</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1238603664935913</v>
+        <v>0.1375196590370822</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04302165731770991</v>
+        <v>0.02905038536423032</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>785732910.6809448</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3480309394.988505</v>
+        <v>3943402625.627068</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1386262182923114</v>
+        <v>0.1676038501419979</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02538434009152464</v>
+        <v>0.02732199385682399</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>119</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1740154712.082952</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2577126332.687079</v>
+        <v>2419066152.443863</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1133285378761522</v>
+        <v>0.07895568629128093</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0287157209636917</v>
+        <v>0.02965706568749954</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>99</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1288563122.363865</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2847171344.865848</v>
+        <v>3306391234.511467</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09136079128642118</v>
+        <v>0.0903178736565895</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02164187489933602</v>
+        <v>0.03290132973484748</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>116</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1423585647.294732</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3793819634.644177</v>
+        <v>3457205633.8215</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1090856983598107</v>
+        <v>0.1761806339523814</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01913741273903766</v>
+        <v>0.01816070779426436</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>113</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1896909871.555644</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2329907839.232559</v>
+        <v>2392818659.523242</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1714253544794621</v>
+        <v>0.1675711019104073</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04110396923707892</v>
+        <v>0.03553042988614207</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>151</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1164953920.133981</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_370.xlsx
+++ b/output/fit_clients/fit_round_370.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2240767036.088093</v>
+        <v>2356280913.18062</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08436134779041007</v>
+        <v>0.07035987486174407</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03778211677883803</v>
+        <v>0.04185722006745702</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1976165929.381168</v>
+        <v>2497881047.528773</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1272180430615485</v>
+        <v>0.1567407214959772</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0324201376016784</v>
+        <v>0.03167404986337666</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4168243125.400493</v>
+        <v>5010029648.063824</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1281787825071604</v>
+        <v>0.1223678947389599</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02411154135589548</v>
+        <v>0.02573751530068313</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3653613351.010092</v>
+        <v>2713174170.790287</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07776431245818115</v>
+        <v>0.07197502173847151</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03152067793196794</v>
+        <v>0.03272518963984193</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1820954112.667395</v>
+        <v>1802536299.724596</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09578959122560674</v>
+        <v>0.09260392603768924</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05319729889677646</v>
+        <v>0.05652264210319186</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2540331762.205127</v>
+        <v>2299617294.35082</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07678301572931011</v>
+        <v>0.08648504898404653</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0381569085849625</v>
+        <v>0.03602830027434084</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3939651420.797154</v>
+        <v>2826485268.04998</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2104258960903997</v>
+        <v>0.1846511825097011</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03134482281693772</v>
+        <v>0.03041067158301629</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1506080982.654265</v>
+        <v>1469042679.477234</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1793156642656274</v>
+        <v>0.1571149897991251</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03730569249877062</v>
+        <v>0.02407670003957998</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5110507337.39885</v>
+        <v>4885095310.828796</v>
       </c>
       <c r="F10" t="n">
-        <v>0.146132680930657</v>
+        <v>0.1535310380623201</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03387407036234568</v>
+        <v>0.04722423439467147</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3243939232.521677</v>
+        <v>3897499157.934647</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1594775948949321</v>
+        <v>0.1450385758704174</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03957690296668355</v>
+        <v>0.04974908342702437</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3276427134.491739</v>
+        <v>2491367558.339314</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1879169973612345</v>
+        <v>0.174122933081002</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03865015651906314</v>
+        <v>0.04906030600891562</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4572146768.479637</v>
+        <v>3878770202.210506</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06729601342478754</v>
+        <v>0.07466832050452842</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02260945238818185</v>
+        <v>0.02422819835702443</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2564787637.372724</v>
+        <v>3173902310.946633</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1354980207475393</v>
+        <v>0.1771288028339937</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04186181289336387</v>
+        <v>0.03462435552636541</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1192101039.176458</v>
+        <v>1547156785.235847</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08063951084837591</v>
+        <v>0.08223817041417857</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03943411362850485</v>
+        <v>0.0411209721001258</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2454556061.783422</v>
+        <v>1836424719.894608</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08697720334502641</v>
+        <v>0.08990880193868434</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05042553808144045</v>
+        <v>0.0473152524122283</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -906,16 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3445494998.570613</v>
+        <v>4121496903.02419</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1556242441477291</v>
+        <v>0.1687615309188606</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03238152962643783</v>
+        <v>0.05240153014191979</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2799127052.644544</v>
+        <v>2891282977.713067</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1809542573328305</v>
+        <v>0.1502365094797599</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03267492552775732</v>
+        <v>0.02513602638174162</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1058061763.461962</v>
+        <v>1197749690.193823</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1324569483478903</v>
+        <v>0.1622114288282239</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01972304330357223</v>
+        <v>0.02151141736065005</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2671708872.361217</v>
+        <v>2330979392.253093</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1534902839894233</v>
+        <v>0.1439727528023618</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02874891154608592</v>
+        <v>0.02347328830551422</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2698104328.446148</v>
+        <v>2587863962.620627</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09730851314152943</v>
+        <v>0.06743780644769394</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03227668305359388</v>
+        <v>0.03559979097092113</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3399150560.335774</v>
+        <v>3861830932.269696</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09418269917882173</v>
+        <v>0.08798672196179097</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04333239504325467</v>
+        <v>0.05213454281019026</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1067481598.639603</v>
+        <v>1090793261.708916</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1162856105470829</v>
+        <v>0.1681620379242857</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05460297984590762</v>
+        <v>0.03909401869842828</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3097664864.197788</v>
+        <v>3296226764.692048</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1087941604792927</v>
+        <v>0.1057213268827122</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02356315160934327</v>
+        <v>0.02343425773736202</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1414518762.685911</v>
+        <v>949374663.4595021</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09520324214472883</v>
+        <v>0.1202880001430417</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02415964211882837</v>
+        <v>0.01950136134587579</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1438479711.67209</v>
+        <v>1430638122.137529</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1185908526577409</v>
+        <v>0.08041896502154368</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0335137456311477</v>
+        <v>0.02458163287966465</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3957160086.364599</v>
+        <v>3639625687.579587</v>
       </c>
       <c r="F27" t="n">
-        <v>0.146926548591989</v>
+        <v>0.1562510119605255</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02538839782968519</v>
+        <v>0.0204304845269103</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3124635005.449735</v>
+        <v>2746705157.177302</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09207144209479344</v>
+        <v>0.1017943398552685</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05026002447872324</v>
+        <v>0.03128103206341835</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3863111562.063825</v>
+        <v>4428966126.986512</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1103363758849478</v>
+        <v>0.1428756946448879</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03939415437503124</v>
+        <v>0.04489880992118658</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2243015261.910584</v>
+        <v>2242735143.846717</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1288600314784213</v>
+        <v>0.09215642829727871</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03751071968084328</v>
+        <v>0.02552209092547173</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1462631346.881891</v>
+        <v>1027733743.187351</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07340329489771059</v>
+        <v>0.08273398413373165</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04014326894817979</v>
+        <v>0.04324223762911941</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1607298731.903843</v>
+        <v>1521756570.174994</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08852709526712947</v>
+        <v>0.1201307373716556</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02453401708827659</v>
+        <v>0.03164480650728755</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2558803790.354523</v>
+        <v>2209425141.793694</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1863527793479548</v>
+        <v>0.2086487752408497</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04222079006554263</v>
+        <v>0.05895925930971893</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1072976901.989936</v>
+        <v>1337534151.569506</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1018747997878905</v>
+        <v>0.1072767852069562</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01827965946365813</v>
+        <v>0.02325472001371475</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>931455734.3667769</v>
+        <v>1173567454.559497</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1082788599694606</v>
+        <v>0.1072410634043683</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03236525720403317</v>
+        <v>0.04029948781964254</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3025730398.728262</v>
+        <v>2890149487.851336</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1486419750087419</v>
+        <v>0.1496685393826867</v>
       </c>
       <c r="G36" t="n">
-        <v>0.026658477711179</v>
+        <v>0.02636177834993388</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2008166416.777564</v>
+        <v>2094937602.15231</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1031089690608109</v>
+        <v>0.1013184807001594</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02810829843303458</v>
+        <v>0.03242738687904133</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2127721842.178456</v>
+        <v>2015140415.683048</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08010158683834262</v>
+        <v>0.0958043218310464</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02556447455334856</v>
+        <v>0.02815157961881955</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2032548527.351635</v>
+        <v>1669543541.19476</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1402571819640449</v>
+        <v>0.1230170221750441</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03046446453092638</v>
+        <v>0.02189986477036382</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1347638355.053069</v>
+        <v>1560851767.273357</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1337365321375119</v>
+        <v>0.1318805827175017</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05602550794513837</v>
+        <v>0.05180567223731375</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2314512726.838967</v>
+        <v>2668413024.204579</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1567869384835213</v>
+        <v>0.1175774406261634</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03773172322193731</v>
+        <v>0.03773119675613666</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4291689593.223974</v>
+        <v>2858842273.392814</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08154844630878742</v>
+        <v>0.1243867670476263</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04553448647297167</v>
+        <v>0.03844558608424731</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3024943853.512776</v>
+        <v>2695013154.864719</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1303254714228987</v>
+        <v>0.1847086607151743</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01951074946525805</v>
+        <v>0.02406031823920724</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1591010751.549267</v>
+        <v>2170292520.904813</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08555001707267523</v>
+        <v>0.09860662941251847</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02848379633681291</v>
+        <v>0.02917584618346158</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2510454252.309767</v>
+        <v>1845187947.25641</v>
       </c>
       <c r="F45" t="n">
-        <v>0.174807944670429</v>
+        <v>0.1187812405243795</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05279502129219305</v>
+        <v>0.04878511572688845</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5564656376.510737</v>
+        <v>3486963458.312699</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1121088590630173</v>
+        <v>0.1084300440312581</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04848994253041283</v>
+        <v>0.0394626630985012</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4419324773.470953</v>
+        <v>3759205403.518804</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1663425004922792</v>
+        <v>0.2025059578042885</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0377437778042661</v>
+        <v>0.04833539977444745</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4047052115.37631</v>
+        <v>3585441477.179559</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09877067699341875</v>
+        <v>0.1080051550727417</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03703564779129424</v>
+        <v>0.03513017903847076</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1800831167.428851</v>
+        <v>1629275722.212251</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1466273422093233</v>
+        <v>0.1259728012283796</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02932521294891976</v>
+        <v>0.03304226870693972</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3415743966.16554</v>
+        <v>2969170255.302085</v>
       </c>
       <c r="F50" t="n">
-        <v>0.166312728694741</v>
+        <v>0.1205177349983188</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03559536531665076</v>
+        <v>0.03819080735225593</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1348951219.661451</v>
+        <v>1398089795.02508</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1603336437361479</v>
+        <v>0.1343723887272628</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0532543195183262</v>
+        <v>0.04056264044392257</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3532740695.474701</v>
+        <v>3791153804.246792</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08714996857392687</v>
+        <v>0.1075384409796949</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05666525892365579</v>
+        <v>0.04507107205654339</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3069122608.722879</v>
+        <v>2791076172.933611</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1647971878313776</v>
+        <v>0.1802804070635989</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03309525011620121</v>
+        <v>0.0315068029379534</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4115117777.558315</v>
+        <v>3205002224.510218</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1280050712923986</v>
+        <v>0.1675333747487386</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03550121181235463</v>
+        <v>0.03936563076634365</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4380426564.648477</v>
+        <v>3746269795.794941</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1528714186150565</v>
+        <v>0.1816411012779237</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02713363846224631</v>
+        <v>0.02775541491999003</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1524812152.242881</v>
+        <v>1311478220.391988</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1053145999386269</v>
+        <v>0.1287593597931777</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03820916925363677</v>
+        <v>0.04575784671348055</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3377470222.954989</v>
+        <v>4553992417.576086</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1578626973554594</v>
+        <v>0.1254242971647559</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01745033170033558</v>
+        <v>0.02022165826467872</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1236399986.847865</v>
+        <v>1344061561.49111</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1615465652061516</v>
+        <v>0.1587298350279275</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03397211895718864</v>
+        <v>0.02410233194619813</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4956399046.84041</v>
+        <v>3581267583.542367</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1164419030456401</v>
+        <v>0.1006982310376542</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03992095013202884</v>
+        <v>0.03353016474572291</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,16 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2666008476.067034</v>
+        <v>3491117234.941506</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1291223154300468</v>
+        <v>0.138849302746614</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02439309087872115</v>
+        <v>0.02802197578085316</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2393699228.499706</v>
+        <v>3276305107.099625</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1153033260027931</v>
+        <v>0.1111692574658496</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02707188307892796</v>
+        <v>0.02957451227800452</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1609592103.82866</v>
+        <v>1892528838.886964</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1637750349362817</v>
+        <v>0.1269711641057684</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03569064725672932</v>
+        <v>0.04055210469456352</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5157349597.419786</v>
+        <v>4081352977.147042</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08634220647729697</v>
+        <v>0.1070054934598372</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03424275767288853</v>
+        <v>0.0293179527691146</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3440288558.329678</v>
+        <v>4750833072.465321</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1549710134357177</v>
+        <v>0.1637469380981166</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03374465399804323</v>
+        <v>0.02176938412989682</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4153739931.282074</v>
+        <v>5631325557.531454</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1347290274953769</v>
+        <v>0.1596666875544186</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0197542953077345</v>
+        <v>0.02161167427468899</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5335524406.511893</v>
+        <v>5303747413.829672</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1329930991000532</v>
+        <v>0.1051653879751673</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03952517268684613</v>
+        <v>0.04573164773419993</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3272275891.182303</v>
+        <v>3384104134.041874</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07951453536975833</v>
+        <v>0.06673516742476093</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04480562663496118</v>
+        <v>0.04532806469034254</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3668529164.694359</v>
+        <v>5070373168.156682</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1598363528760557</v>
+        <v>0.1367775769387155</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03956856831879942</v>
+        <v>0.04776971358087322</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1726650095.559817</v>
+        <v>2091183281.970071</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1826132183870425</v>
+        <v>0.1482609729396308</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05771590715033499</v>
+        <v>0.05992659420831105</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3648132098.950543</v>
+        <v>3435492500.357627</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07662122922069149</v>
+        <v>0.08360180873633374</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03110657183848352</v>
+        <v>0.04876406864027245</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3403706120.641822</v>
+        <v>4629007058.510044</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1629220065684347</v>
+        <v>0.1144039027369151</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0301215730835532</v>
+        <v>0.0289801191659135</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2045867879.142359</v>
+        <v>1787778260.750221</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08331810437676868</v>
+        <v>0.08765485090977006</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04738712145065031</v>
+        <v>0.03275682361950598</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3238074956.372169</v>
+        <v>2177324153.716963</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09582203391839687</v>
+        <v>0.07942731406896557</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04561811706882743</v>
+        <v>0.03590393797350298</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2618997556.05726</v>
+        <v>3262808194.978708</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1682916782844518</v>
+        <v>0.1847391597525857</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03189185047776126</v>
+        <v>0.03431390516830168</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,16 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2470159616.12997</v>
+        <v>2397879983.423136</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1571736084922513</v>
+        <v>0.1441627174767824</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0301250385144386</v>
+        <v>0.03325616081986801</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4453515369.671503</v>
+        <v>5267356181.435438</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1201665289275376</v>
+        <v>0.08943784507496828</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0286917890663041</v>
+        <v>0.02418779637607641</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1671766103.455291</v>
+        <v>1733287947.956025</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1593049118968221</v>
+        <v>0.1668598209575789</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03010594393945812</v>
+        <v>0.02794205136304038</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3963732513.921693</v>
+        <v>4606511549.297575</v>
       </c>
       <c r="F78" t="n">
-        <v>0.126829113900341</v>
+        <v>0.08307503068396922</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04903097993330745</v>
+        <v>0.05680004391492487</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1405075955.606977</v>
+        <v>1709051457.679026</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1476210310917093</v>
+        <v>0.1263369789653511</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03626842643570496</v>
+        <v>0.03331470182933622</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5600389236.328948</v>
+        <v>5501428009.595798</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08998652726056049</v>
+        <v>0.1035499676252936</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03363436480400478</v>
+        <v>0.02657161746860243</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3551252275.000895</v>
+        <v>3737530476.73646</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08943241008984484</v>
+        <v>0.131544318293155</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02959134648478292</v>
+        <v>0.02338685233301031</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3888670035.187346</v>
+        <v>3879915685.188832</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1677350892921216</v>
+        <v>0.1717998488787886</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02417674666876837</v>
+        <v>0.02952887311856559</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2178954093.912146</v>
+        <v>1822550867.508441</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1173290043601718</v>
+        <v>0.1124641104726391</v>
       </c>
       <c r="G83" t="n">
-        <v>0.030014332441558</v>
+        <v>0.03797688047672039</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2146027309.43257</v>
+        <v>1642010143.669438</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1029668428553731</v>
+        <v>0.0964790350916173</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04216950397330629</v>
+        <v>0.03800314455941899</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2630760385.722665</v>
+        <v>3620510119.068157</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1262221447613636</v>
+        <v>0.1726478005918576</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03431973044856716</v>
+        <v>0.03603300630058699</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2691999766.946929</v>
+        <v>2577631389.571503</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1206537171264181</v>
+        <v>0.1369637108084113</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02601447418466344</v>
+        <v>0.01860851062589475</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>924252335.1256846</v>
+        <v>983874706.9734969</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1385773280765405</v>
+        <v>0.1511005536764705</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02856594753165907</v>
+        <v>0.034538148742825</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2436642089.114445</v>
+        <v>3030028962.365358</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1389495833438964</v>
+        <v>0.1566286464380235</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03908249166538324</v>
+        <v>0.03914331305729334</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2744005923.148241</v>
+        <v>3396981647.520641</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09785626889806347</v>
+        <v>0.1271736523994159</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03302056655775062</v>
+        <v>0.03871348925463695</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1880435912.975983</v>
+        <v>1515187091.348873</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1267053745280033</v>
+        <v>0.1004399841920682</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03969080373649426</v>
+        <v>0.03984654923710376</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1497575659.949126</v>
+        <v>1526547079.717319</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1933613180116738</v>
+        <v>0.1552821526308233</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05205026385647975</v>
+        <v>0.04149705494175294</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2535536778.121606</v>
+        <v>1876042949.546623</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09026563989407546</v>
+        <v>0.1054622461360284</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03044064528491331</v>
+        <v>0.0302915177210179</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3870187685.085039</v>
+        <v>3815371420.701326</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1108985761656051</v>
+        <v>0.1298847320843876</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04113849286435479</v>
+        <v>0.04187642209321379</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,16 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2168001672.77179</v>
+        <v>1552012738.934352</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1626528851803445</v>
+        <v>0.1058715087079345</v>
       </c>
       <c r="G94" t="n">
-        <v>0.031739728573865</v>
+        <v>0.03377777298909194</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2297509700.702969</v>
+        <v>2124131577.138036</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09206972201807997</v>
+        <v>0.08552121884605145</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03813363047078246</v>
+        <v>0.03969170602773119</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2237692968.347181</v>
+        <v>1448603054.281305</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1375196590370822</v>
+        <v>0.1001553105976792</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02905038536423032</v>
+        <v>0.0345843990849329</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3943402625.627068</v>
+        <v>4398276180.680888</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1676038501419979</v>
+        <v>0.1736564812356411</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02732199385682399</v>
+        <v>0.02450344392909839</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2419066152.443863</v>
+        <v>3595886606.74644</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07895568629128093</v>
+        <v>0.1097167188092403</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02965706568749954</v>
+        <v>0.02408324905521083</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3306391234.511467</v>
+        <v>2735131520.238118</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0903178736565895</v>
+        <v>0.09412432077605733</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03290132973484748</v>
+        <v>0.02843290393647936</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3457205633.8215</v>
+        <v>3605102551.503453</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1761806339523814</v>
+        <v>0.1609825558978234</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01816070779426436</v>
+        <v>0.02758855671061373</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2392818659.523242</v>
+        <v>3589990867.161734</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1675711019104073</v>
+        <v>0.1590444736189506</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03553042988614207</v>
+        <v>0.05568713951876929</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_370.xlsx
+++ b/output/fit_clients/fit_round_370.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2356280913.18062</v>
+        <v>2516535726.455807</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07035987486174407</v>
+        <v>0.07592557450642524</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04185722006745702</v>
+        <v>0.03644134579676858</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2497881047.528773</v>
+        <v>2155128608.193245</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1567407214959772</v>
+        <v>0.1707491225761824</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03167404986337666</v>
+        <v>0.03230789033261054</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5010029648.063824</v>
+        <v>5194832395.335609</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1223678947389599</v>
+        <v>0.1422730604864242</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02573751530068313</v>
+        <v>0.02899339343321801</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>190</v>
+      </c>
+      <c r="J4" t="n">
+        <v>370</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2713174170.790287</v>
+        <v>2746208160.635074</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07197502173847151</v>
+        <v>0.1032564087274634</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03272518963984193</v>
+        <v>0.03540693543037982</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>149</v>
+      </c>
+      <c r="J5" t="n">
+        <v>367</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1802536299.724596</v>
+        <v>2554245383.532344</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09260392603768924</v>
+        <v>0.118567802388039</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05652264210319186</v>
+        <v>0.0502149349271571</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2299617294.35082</v>
+        <v>2006432368.123314</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08648504898404653</v>
+        <v>0.07710770114252746</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03602830027434084</v>
+        <v>0.0399892006967965</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +711,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2826485268.04998</v>
+        <v>3894551192.027117</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1846511825097011</v>
+        <v>0.1487655085036572</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03041067158301629</v>
+        <v>0.02376944684090947</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>97</v>
+      </c>
+      <c r="J8" t="n">
+        <v>370</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +746,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1469042679.477234</v>
+        <v>2193760175.29183</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1571149897991251</v>
+        <v>0.1622630181613804</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02407670003957998</v>
+        <v>0.03096466763653463</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4885095310.828796</v>
+        <v>5088044908.540805</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1535310380623201</v>
+        <v>0.1851509128820239</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04722423439467147</v>
+        <v>0.03601477100956928</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>307</v>
+      </c>
+      <c r="J10" t="n">
+        <v>369</v>
+      </c>
+      <c r="K10" t="n">
+        <v>55.78050065383184</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3897499157.934647</v>
+        <v>3095973806.051058</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1450385758704174</v>
+        <v>0.1316898107119745</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04974908342702437</v>
+        <v>0.0360281390239861</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>154</v>
+      </c>
+      <c r="J11" t="n">
+        <v>369</v>
+      </c>
+      <c r="K11" t="n">
+        <v>41.94730724921867</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2491367558.339314</v>
+        <v>3159747826.526868</v>
       </c>
       <c r="F12" t="n">
-        <v>0.174122933081002</v>
+        <v>0.1311319313881553</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04906030600891562</v>
+        <v>0.04749974959766133</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3878770202.210506</v>
+        <v>4140413633.505124</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07466832050452842</v>
+        <v>0.08402733828619416</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02422819835702443</v>
+        <v>0.02385801488892829</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>192</v>
+      </c>
+      <c r="J13" t="n">
+        <v>370</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +919,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3173902310.946633</v>
+        <v>3562914879.292969</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1771288028339937</v>
+        <v>0.1647205474484409</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03462435552636541</v>
+        <v>0.03557889377509405</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>76</v>
+      </c>
+      <c r="J14" t="n">
+        <v>370</v>
+      </c>
+      <c r="K14" t="n">
+        <v>65.27089239570346</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1547156785.235847</v>
+        <v>1646524868.166516</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08223817041417857</v>
+        <v>0.06916582923683612</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0411209721001258</v>
+        <v>0.04217830236528283</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1836424719.894608</v>
+        <v>1868099155.429702</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08990880193868434</v>
+        <v>0.1104161112330087</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0473152524122283</v>
+        <v>0.04031531429974174</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4121496903.02419</v>
+        <v>3690506579.096126</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1687615309188606</v>
+        <v>0.1522136587331514</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05240153014191979</v>
+        <v>0.03212590366592439</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>174</v>
+      </c>
+      <c r="J17" t="n">
+        <v>370</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1061,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2891282977.713067</v>
+        <v>2459833801.243455</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1502365094797599</v>
+        <v>0.1221969942067433</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02513602638174162</v>
+        <v>0.02363802093524688</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>91</v>
+      </c>
+      <c r="J18" t="n">
+        <v>369</v>
+      </c>
+      <c r="K18" t="n">
+        <v>29.0610654727367</v>
       </c>
     </row>
     <row r="19">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1197749690.193823</v>
+        <v>1321977468.895939</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1622114288282239</v>
+        <v>0.191943797583134</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02151141736065005</v>
+        <v>0.02630402478251702</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2330979392.253093</v>
+        <v>2154424717.256564</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1439727528023618</v>
+        <v>0.09928038484800715</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02347328830551422</v>
+        <v>0.02080088155570927</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2587863962.620627</v>
+        <v>2692204623.133543</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06743780644769394</v>
+        <v>0.08208909788652563</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03559979097092113</v>
+        <v>0.03064426011015154</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3861830932.269696</v>
+        <v>3920302092.501304</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08798672196179097</v>
+        <v>0.08839721983637497</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05213454281019026</v>
+        <v>0.03692595421669631</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>104</v>
+      </c>
+      <c r="J22" t="n">
+        <v>370</v>
+      </c>
+      <c r="K22" t="n">
+        <v>65.51600121859133</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1090793261.708916</v>
+        <v>1247032899.135509</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1681620379242857</v>
+        <v>0.1434559167117285</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03909401869842828</v>
+        <v>0.0410942093145918</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1275,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3296226764.692048</v>
+        <v>2637576454.30916</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1057213268827122</v>
+        <v>0.121389548760409</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02343425773736202</v>
+        <v>0.02902378341660431</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>114</v>
+      </c>
+      <c r="J24" t="n">
+        <v>369</v>
+      </c>
+      <c r="K24" t="n">
+        <v>27.84792313135183</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1318,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>949374663.4595021</v>
+        <v>1165429374.640849</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1202880001430417</v>
+        <v>0.1076598200796143</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01950136134587579</v>
+        <v>0.03001751488204294</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1430638122.137529</v>
+        <v>899556096.7624838</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08041896502154368</v>
+        <v>0.07910630081823371</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02458163287966465</v>
+        <v>0.03912598374198066</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3639625687.579587</v>
+        <v>3514706158.598364</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1562510119605255</v>
+        <v>0.1403305022489879</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0204304845269103</v>
+        <v>0.02090293058031633</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>155</v>
+      </c>
+      <c r="J27" t="n">
+        <v>369</v>
+      </c>
+      <c r="K27" t="n">
+        <v>47.37478949203751</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2746705157.177302</v>
+        <v>3223907060.586939</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1017943398552685</v>
+        <v>0.1263117155172962</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03128103206341835</v>
+        <v>0.04809949605469687</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>85</v>
+      </c>
+      <c r="J28" t="n">
+        <v>358</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1454,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4428966126.986512</v>
+        <v>3778512468.730265</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1428756946448879</v>
+        <v>0.1363918362373436</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04489880992118658</v>
+        <v>0.04226505669273143</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>323</v>
+      </c>
+      <c r="J29" t="n">
+        <v>370</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2242735143.846717</v>
+        <v>1782686582.272234</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09215642829727871</v>
+        <v>0.09423824536094923</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02552209092547173</v>
+        <v>0.03086492336724928</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1530,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1027733743.187351</v>
+        <v>1188304073.15116</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08273398413373165</v>
+        <v>0.08980183290691274</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04324223762911941</v>
+        <v>0.0503362033223555</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1521756570.174994</v>
+        <v>1859300540.41834</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1201307373716556</v>
+        <v>0.07856405298350255</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03164480650728755</v>
+        <v>0.02971627289942146</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2209425141.793694</v>
+        <v>2622738428.244876</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2086487752408497</v>
+        <v>0.1683956968404534</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05895925930971893</v>
+        <v>0.04656508223162938</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1635,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1337534151.569506</v>
+        <v>1059025486.839912</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1072767852069562</v>
+        <v>0.1200267974282946</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02325472001371475</v>
+        <v>0.02795232116632791</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1173567454.559497</v>
+        <v>832276119.6459112</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1072410634043683</v>
+        <v>0.116393393867266</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04029948781964254</v>
+        <v>0.03559932371737257</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2890149487.851336</v>
+        <v>2111223016.013168</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1496685393826867</v>
+        <v>0.164298455407522</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02636177834993388</v>
+        <v>0.02462264250460416</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2094937602.15231</v>
+        <v>1812232708.807636</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1013184807001594</v>
+        <v>0.09886804040984717</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03242738687904133</v>
+        <v>0.02642799475889603</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1775,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2015140415.683048</v>
+        <v>1900366214.730106</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0958043218310464</v>
+        <v>0.0900216357145472</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02815157961881955</v>
+        <v>0.0328544345100328</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1669543541.19476</v>
+        <v>1862358638.367775</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1230170221750441</v>
+        <v>0.1314887154338145</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02189986477036382</v>
+        <v>0.02674199354193301</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1560851767.273357</v>
+        <v>1384548695.605731</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1318805827175017</v>
+        <v>0.1046345153281914</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05180567223731375</v>
+        <v>0.05353080933152144</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2668413024.204579</v>
+        <v>2829051417.522388</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1175774406261634</v>
+        <v>0.1497696259939658</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03773119675613666</v>
+        <v>0.03955633489352949</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1915,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2858842273.392814</v>
+        <v>2825679780.511047</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1243867670476263</v>
+        <v>0.1088026586629</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03844558608424731</v>
+        <v>0.0307618907472824</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>164</v>
+      </c>
+      <c r="J42" t="n">
+        <v>367</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2695013154.864719</v>
+        <v>1865613858.977348</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1847086607151743</v>
+        <v>0.143053825463166</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02406031823920724</v>
+        <v>0.02479579575985943</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2170292520.904813</v>
+        <v>2027410892.442495</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09860662941251847</v>
+        <v>0.08502542415871718</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02917584618346158</v>
+        <v>0.02247985555655473</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1845187947.25641</v>
+        <v>2337650204.152075</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1187812405243795</v>
+        <v>0.1534467396203658</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04878511572688845</v>
+        <v>0.05104095450170258</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3486963458.312699</v>
+        <v>4333945231.343429</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1084300440312581</v>
+        <v>0.1179242309848648</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0394626630985012</v>
+        <v>0.05982011107976339</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>221</v>
+      </c>
+      <c r="J46" t="n">
+        <v>370</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,17 +2090,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3759205403.518804</v>
+        <v>3952604308.735469</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2025059578042885</v>
+        <v>0.1700615207680599</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04833539977444745</v>
+        <v>0.04702113924365409</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>165</v>
+      </c>
+      <c r="J47" t="n">
+        <v>370</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3585441477.179559</v>
+        <v>3579580322.099911</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1080051550727417</v>
+        <v>0.09139378371970028</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03513017903847076</v>
+        <v>0.03709693537010574</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>191</v>
+      </c>
+      <c r="J48" t="n">
+        <v>369</v>
+      </c>
+      <c r="K48" t="n">
+        <v>47.27124210298309</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1629275722.212251</v>
+        <v>1319549691.580524</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1259728012283796</v>
+        <v>0.1476630038854388</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03304226870693972</v>
+        <v>0.04163353896782104</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2969170255.302085</v>
+        <v>3664913035.870814</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1205177349983188</v>
+        <v>0.1418487071527656</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03819080735225593</v>
+        <v>0.04373529693812751</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>124</v>
+      </c>
+      <c r="J50" t="n">
+        <v>368</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1398089795.02508</v>
+        <v>1103805626.425239</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1343723887272628</v>
+        <v>0.1478837415709641</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04056264044392257</v>
+        <v>0.05408672162289734</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3791153804.246792</v>
+        <v>3617875531.170465</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1075384409796949</v>
+        <v>0.1165889047856933</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04507107205654339</v>
+        <v>0.04674957944448288</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>218</v>
+      </c>
+      <c r="J52" t="n">
+        <v>369</v>
+      </c>
+      <c r="K52" t="n">
+        <v>47.43580140555626</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2791076172.933611</v>
+        <v>3203360998.601614</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1802804070635989</v>
+        <v>0.2020131895814611</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0315068029379534</v>
+        <v>0.02748028452668781</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>52</v>
+      </c>
+      <c r="J53" t="n">
+        <v>357</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2339,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3205002224.510218</v>
+        <v>4252669111.835791</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1675333747487386</v>
+        <v>0.1476349902788486</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03936563076634365</v>
+        <v>0.03962031513076673</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>196</v>
+      </c>
+      <c r="J54" t="n">
+        <v>370</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3746269795.794941</v>
+        <v>4106190970.57485</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1816411012779237</v>
+        <v>0.15315199702841</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02775541491999003</v>
+        <v>0.02262802640854734</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>177</v>
+      </c>
+      <c r="J55" t="n">
+        <v>370</v>
+      </c>
+      <c r="K55" t="n">
+        <v>62.08916992404504</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1311478220.391988</v>
+        <v>1301128636.00155</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1287593597931777</v>
+        <v>0.1170097603512342</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04575784671348055</v>
+        <v>0.05116827476988412</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4553992417.576086</v>
+        <v>4522778502.394848</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1254242971647559</v>
+        <v>0.1440969989696727</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02022165826467872</v>
+        <v>0.01955532219689313</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>154</v>
+      </c>
+      <c r="J57" t="n">
+        <v>370</v>
+      </c>
+      <c r="K57" t="n">
+        <v>60.01745816639644</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1344061561.49111</v>
+        <v>1286373914.30881</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1587298350279275</v>
+        <v>0.1232539077787744</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02410233194619813</v>
+        <v>0.03772106571876068</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2518,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3581267583.542367</v>
+        <v>4607144206.032122</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1006982310376542</v>
+        <v>0.119341271514738</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03353016474572291</v>
+        <v>0.04357768203784643</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>180</v>
+      </c>
+      <c r="J59" t="n">
+        <v>370</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3491117234.941506</v>
+        <v>3439820692.301793</v>
       </c>
       <c r="F60" t="n">
-        <v>0.138849302746614</v>
+        <v>0.1819558705705331</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02802197578085316</v>
+        <v>0.02114076202416729</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>66</v>
+      </c>
+      <c r="J60" t="n">
+        <v>367</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3276305107.099625</v>
+        <v>2100030335.660019</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1111692574658496</v>
+        <v>0.1318979221633713</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02957451227800452</v>
+        <v>0.02398381980322567</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>12</v>
+      </c>
+      <c r="J61" t="n">
+        <v>362</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1892528838.886964</v>
+        <v>1993693689.770137</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1269711641057684</v>
+        <v>0.1207149092082985</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04055210469456352</v>
+        <v>0.04667727493627045</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4081352977.147042</v>
+        <v>4985139028.230169</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1070054934598372</v>
+        <v>0.1009382805975468</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0293179527691146</v>
+        <v>0.02868076662125654</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>182</v>
+      </c>
+      <c r="J63" t="n">
+        <v>369</v>
+      </c>
+      <c r="K63" t="n">
+        <v>58.09903858566625</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2695,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4750833072.465321</v>
+        <v>5132187783.652144</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1637469380981166</v>
+        <v>0.1748984078082715</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02176938412989682</v>
+        <v>0.0344267473727399</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>184</v>
+      </c>
+      <c r="J64" t="n">
+        <v>369</v>
+      </c>
+      <c r="K64" t="n">
+        <v>55.25934252814952</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2732,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5631325557.531454</v>
+        <v>4623509602.89624</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1596666875544186</v>
+        <v>0.1528868144726988</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02161167427468899</v>
+        <v>0.0283140192758719</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>280</v>
+      </c>
+      <c r="J65" t="n">
+        <v>369</v>
+      </c>
+      <c r="K65" t="n">
+        <v>56.90881590911673</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2769,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5303747413.829672</v>
+        <v>4498916472.412486</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1051653879751673</v>
+        <v>0.1342984603762049</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04573164773419993</v>
+        <v>0.03229997144284786</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>183</v>
+      </c>
+      <c r="J66" t="n">
+        <v>369</v>
+      </c>
+      <c r="K66" t="n">
+        <v>53.26700429045194</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3384104134.041874</v>
+        <v>3282746165.431742</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06673516742476093</v>
+        <v>0.07043047118923561</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04532806469034254</v>
+        <v>0.03103630874762541</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2841,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5070373168.156682</v>
+        <v>5029863841.548032</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1367775769387155</v>
+        <v>0.1487516770412665</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04776971358087322</v>
+        <v>0.04538304106208077</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>201</v>
+      </c>
+      <c r="J68" t="n">
+        <v>369</v>
+      </c>
+      <c r="K68" t="n">
+        <v>56.66680095257927</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2091183281.970071</v>
+        <v>2471427380.408436</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1482609729396308</v>
+        <v>0.1165730796619547</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05992659420831105</v>
+        <v>0.04164454345791228</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3435492500.357627</v>
+        <v>3236959285.098176</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08360180873633374</v>
+        <v>0.09294580976962251</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04876406864027245</v>
+        <v>0.03241709352058371</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>52</v>
+      </c>
+      <c r="J70" t="n">
+        <v>361</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2942,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4629007058.510044</v>
+        <v>5117011941.043992</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1144039027369151</v>
+        <v>0.1616076641831562</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0289801191659135</v>
+        <v>0.02134872721869656</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>266</v>
+      </c>
+      <c r="J71" t="n">
+        <v>370</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1787778260.750221</v>
+        <v>1753386076.213478</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08765485090977006</v>
+        <v>0.07622677025993636</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03275682361950598</v>
+        <v>0.05182912803311267</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2177324153.716963</v>
+        <v>2278796172.409555</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07942731406896557</v>
+        <v>0.1051209510437547</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03590393797350298</v>
+        <v>0.04242597125022029</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>346</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3047,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3262808194.978708</v>
+        <v>3299707996.443683</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1847391597525857</v>
+        <v>0.1259081332157591</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03431390516830168</v>
+        <v>0.03213120271576164</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>106</v>
+      </c>
+      <c r="J74" t="n">
+        <v>369</v>
+      </c>
+      <c r="K74" t="n">
+        <v>49.53614752336479</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2397879983.423136</v>
+        <v>1578784355.72544</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1441627174767824</v>
+        <v>0.1617109228620828</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03325616081986801</v>
+        <v>0.02488830248113149</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3119,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5267356181.435438</v>
+        <v>3789605674.044776</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08943784507496828</v>
+        <v>0.1229562501116415</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02418779637607641</v>
+        <v>0.0259555494375074</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>175</v>
+      </c>
+      <c r="J76" t="n">
+        <v>370</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3160,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1733287947.956025</v>
+        <v>1698965896.257984</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1668598209575789</v>
+        <v>0.1144766070467682</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02794205136304038</v>
+        <v>0.03167679678035157</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3189,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4606511549.297575</v>
+        <v>4727979937.980046</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08307503068396922</v>
+        <v>0.09202543866729883</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05680004391492487</v>
+        <v>0.03926204873953047</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>185</v>
+      </c>
+      <c r="J78" t="n">
+        <v>370</v>
+      </c>
+      <c r="K78" t="n">
+        <v>58.1471805514302</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1709051457.679026</v>
+        <v>1729998369.185288</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1263369789653511</v>
+        <v>0.1769494453205052</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03331470182933622</v>
+        <v>0.02848676893804943</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3261,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5501428009.595798</v>
+        <v>5257063904.621819</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1035499676252936</v>
+        <v>0.0947069195196435</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02657161746860243</v>
+        <v>0.02644700737974877</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>180</v>
+      </c>
+      <c r="J80" t="n">
+        <v>370</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3737530476.73646</v>
+        <v>4113371570.249148</v>
       </c>
       <c r="F81" t="n">
-        <v>0.131544318293155</v>
+        <v>0.1192221649240724</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02338685233301031</v>
+        <v>0.02980226016237888</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>171</v>
+      </c>
+      <c r="J81" t="n">
+        <v>370</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3879915685.188832</v>
+        <v>5387745214.745667</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1717998488787886</v>
+        <v>0.207915622851559</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02952887311856559</v>
+        <v>0.02688463825468885</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>258</v>
+      </c>
+      <c r="J82" t="n">
+        <v>369</v>
+      </c>
+      <c r="K82" t="n">
+        <v>56.1265419365113</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1822550867.508441</v>
+        <v>1902224577.331316</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1124641104726391</v>
+        <v>0.1408256059143375</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03797688047672039</v>
+        <v>0.04352770504074741</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1642010143.669438</v>
+        <v>1940811141.393826</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0964790350916173</v>
+        <v>0.1121487046375756</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03800314455941899</v>
+        <v>0.03303458552230051</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3620510119.068157</v>
+        <v>3361106084.872698</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1726478005918576</v>
+        <v>0.1723786311645913</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03603300630058699</v>
+        <v>0.05617167335258556</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>47</v>
+      </c>
+      <c r="J85" t="n">
+        <v>366</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2577631389.571503</v>
+        <v>1988571559.693259</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1369637108084113</v>
+        <v>0.1177956319917168</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01860851062589475</v>
+        <v>0.017302566146871</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>983874706.9734969</v>
+        <v>1483294706.207823</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1511005536764705</v>
+        <v>0.1591759680110092</v>
       </c>
       <c r="G87" t="n">
-        <v>0.034538148742825</v>
+        <v>0.0360665555455225</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3030028962.365358</v>
+        <v>3283116396.394761</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1566286464380235</v>
+        <v>0.1448422832125151</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03914331305729334</v>
+        <v>0.03088769065746814</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3396981647.520641</v>
+        <v>2933251293.590848</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1271736523994159</v>
+        <v>0.1537980290666937</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03871348925463695</v>
+        <v>0.03147294052799717</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3619,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1515187091.348873</v>
+        <v>1944153026.163219</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1004399841920682</v>
+        <v>0.09460575559630752</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03984654923710376</v>
+        <v>0.04096710440238593</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1526547079.717319</v>
+        <v>1721182774.69427</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1552821526308233</v>
+        <v>0.1504500620470465</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04149705494175294</v>
+        <v>0.05464495946016374</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1876042949.546623</v>
+        <v>2312553843.677454</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1054622461360284</v>
+        <v>0.08239603419304965</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0302915177210179</v>
+        <v>0.03528371764897022</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3718,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3815371420.701326</v>
+        <v>3176415215.491227</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1298847320843876</v>
+        <v>0.105778410330619</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04187642209321379</v>
+        <v>0.0527841893817014</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>173</v>
+      </c>
+      <c r="J93" t="n">
+        <v>369</v>
+      </c>
+      <c r="K93" t="n">
+        <v>38.03003128766938</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1552012738.934352</v>
+        <v>2427053657.461199</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1058715087079345</v>
+        <v>0.1091052579705744</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03377777298909194</v>
+        <v>0.04013708939536258</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2124131577.138036</v>
+        <v>2011541450.986746</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08552121884605145</v>
+        <v>0.09588471881922604</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03969170602773119</v>
+        <v>0.05052464466733987</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1448603054.281305</v>
+        <v>1687120657.47324</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1001553105976792</v>
+        <v>0.1033883853396406</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0345843990849329</v>
+        <v>0.04605090163813134</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4398276180.680888</v>
+        <v>4406428863.922237</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1736564812356411</v>
+        <v>0.1281751899570379</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02450344392909839</v>
+        <v>0.01870769809527685</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>191</v>
+      </c>
+      <c r="J97" t="n">
+        <v>370</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3595886606.74644</v>
+        <v>2554530263.822074</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1097167188092403</v>
+        <v>0.08660360766890533</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02408324905521083</v>
+        <v>0.03043095485951143</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>92</v>
+      </c>
+      <c r="J98" t="n">
+        <v>367</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2735131520.238118</v>
+        <v>2485712981.190857</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09412432077605733</v>
+        <v>0.1206832253221297</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02843290393647936</v>
+        <v>0.03456027275062504</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3605102551.503453</v>
+        <v>4183374946.434042</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1609825558978234</v>
+        <v>0.1367251079244897</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02758855671061373</v>
+        <v>0.02397423679937308</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>168</v>
+      </c>
+      <c r="J100" t="n">
+        <v>370</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3589990867.161734</v>
+        <v>2604911848.832628</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1590444736189506</v>
+        <v>0.1847721717516009</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05568713951876929</v>
+        <v>0.03687009495385469</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>33</v>
+      </c>
+      <c r="J101" t="n">
+        <v>362</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
